--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -863,10 +863,10 @@
         <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
         <v>2.63</v>
@@ -1004,10 +1004,10 @@
         <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1133,10 +1133,10 @@
         <v>2.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1148,13 +1148,13 @@
         <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
         <v>1.2</v>
@@ -1277,7 +1277,7 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1286,10 +1286,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="S6" t="n">
         <v>2.1</v>
@@ -1316,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1824,28 +1824,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="H10" t="n">
         <v>2.55</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>1.75</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M10" t="n">
         <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.7</v>
@@ -1854,10 +1854,10 @@
         <v>2.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
         <v>5.6</v>
@@ -1869,40 +1869,40 @@
         <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="X10" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z10" t="n">
         <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB10" t="n">
         <v>37</v>
       </c>
       <c r="AC10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AF10" t="n">
         <v>5.3</v>
       </c>
       <c r="AG10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>150</v>
@@ -1911,22 +1911,22 @@
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AK10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
         <v>40</v>
       </c>
       <c r="AN10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2426,10 +2426,10 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2968,19 +2968,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
         <v>2.6</v>
@@ -3010,10 +3010,10 @@
         <v>1.29</v>
       </c>
       <c r="U18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W18" t="n">
         <v>1.8</v>
@@ -3022,13 +3022,13 @@
         <v>1.95</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
@@ -3040,7 +3040,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3055,7 +3055,7 @@
         <v>251</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>9</v>
@@ -3070,7 +3070,7 @@
         <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3421,16 +3421,16 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U21" t="n">
         <v>1.36</v>
@@ -3608,41 +3608,103 @@
           <t>Kuching City FC</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.75</v>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.54</v>
+      </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>20</v>
+      </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
@@ -3679,41 +3741,91 @@
           <t>Kedah</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.25</v>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.2</v>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
+      <c r="Y24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>14.5</v>
+      </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
@@ -3751,82 +3863,82 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.3</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R25" t="n">
         <v>2.2</v>
       </c>
-      <c r="L25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>13</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.05</v>
-      </c>
       <c r="S25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA25" t="n">
         <v>9</v>
       </c>
-      <c r="Z25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD25" t="n">
         <v>21</v>
       </c>
-      <c r="AC25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>23</v>
-      </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3838,19 +3950,19 @@
         <v>151</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
         <v>29</v>
@@ -3892,61 +4004,61 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y26" t="n">
         <v>11</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>12</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -3961,13 +4073,13 @@
         <v>34</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG26" t="n">
         <v>15</v>
@@ -3976,10 +4088,10 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
         <v>9</v>
@@ -3988,13 +4100,13 @@
         <v>8.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
         <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4178,16 +4290,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
@@ -4196,10 +4308,10 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -4247,10 +4359,10 @@
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>6.5</v>
@@ -4265,7 +4377,7 @@
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK28" t="n">
         <v>19</v>
@@ -4466,7 +4578,7 @@
         <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J30" t="n">
         <v>5.5</v>
@@ -4475,7 +4587,7 @@
         <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4508,7 +4620,7 @@
         <v>3.5</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X30" t="n">
         <v>2.1</v>
@@ -4605,13 +4717,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>3.2</v>
@@ -4653,7 +4765,7 @@
         <v>2.75</v>
       </c>
       <c r="W31" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X31" t="n">
         <v>2</v>
@@ -4746,7 +4858,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H32" t="n">
         <v>3.75</v>
@@ -4794,10 +4906,10 @@
         <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X32" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y32" t="n">
         <v>7</v>
@@ -4887,7 +4999,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>3.5</v>
@@ -4896,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K33" t="n">
         <v>2.2</v>
@@ -4935,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X33" t="n">
         <v>2.1</v>
@@ -5028,7 +5140,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
@@ -5049,7 +5161,7 @@
         <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
         <v>1.36</v>
@@ -5076,10 +5188,10 @@
         <v>2.63</v>
       </c>
       <c r="W34" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X34" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y34" t="n">
         <v>7.5</v>
@@ -5175,13 +5287,13 @@
         <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="J35" t="n">
         <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L35" t="n">
         <v>2.05</v>
@@ -5217,10 +5329,10 @@
         <v>3.25</v>
       </c>
       <c r="W35" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X35" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Y35" t="n">
         <v>17</v>
@@ -5313,41 +5425,103 @@
           <t>Jedinstvo U.</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.2</v>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.3</v>
+      </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>60</v>
+      </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
@@ -5384,41 +5558,103 @@
           <t>Crvena zvezda</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>11</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.5</v>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.73</v>
+      </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>23</v>
+      </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
@@ -5455,41 +5691,103 @@
           <t>Mladost</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7</v>
+      </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.44</v>
+      </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
+      <c r="W38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>60</v>
+      </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
@@ -5526,41 +5824,107 @@
           <t>Vojvodina</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.7</v>
+      </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>25</v>
+      </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
@@ -5597,41 +5961,107 @@
           <t>OFK Beograd</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.1</v>
+      </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>27</v>
+      </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -710,10 +710,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -722,16 +722,16 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
         <v>1.36</v>
@@ -863,10 +863,10 @@
         <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
         <v>2.63</v>
@@ -977,7 +977,7 @@
         <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.95</v>
@@ -1004,10 +1004,10 @@
         <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1058,7 +1058,7 @@
         <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ4" t="n">
         <v>7</v>
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1133,10 +1133,10 @@
         <v>2.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1145,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
         <v>3.2</v>
@@ -1175,7 +1175,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1190,7 +1190,7 @@
         <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1217,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1265,19 +1265,19 @@
         <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
         <v>2.63</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1286,10 +1286,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="S6" t="n">
         <v>2.1</v>
@@ -1304,10 +1304,10 @@
         <v>3.75</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
@@ -1316,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
         <v>2.95</v>
@@ -1839,43 +1839,43 @@
         <v>1.75</v>
       </c>
       <c r="L10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N10" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Y10" t="n">
         <v>6</v>
@@ -1890,19 +1890,19 @@
         <v>37</v>
       </c>
       <c r="AC10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
         <v>150</v>
@@ -1911,19 +1911,19 @@
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM10" t="n">
         <v>40</v>
       </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO10" t="n">
         <v>65</v>
@@ -1965,43 +1965,43 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K11" t="n">
         <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="T11" t="n">
         <v>1.5</v>
@@ -2013,16 +2013,16 @@
         <v>3.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
@@ -2031,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>21</v>
@@ -2040,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
@@ -2070,10 +2070,10 @@
         <v>34</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2116,7 +2116,7 @@
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J12" t="n">
         <v>4.33</v>
@@ -2128,28 +2128,28 @@
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2158,10 +2158,10 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2269,13 +2269,13 @@
         <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>6.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
         <v>2.5</v>
@@ -2290,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
@@ -2302,7 +2302,7 @@
         <v>2.05</v>
       </c>
       <c r="X13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -2414,10 +2414,10 @@
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2444,10 +2444,10 @@
         <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
@@ -2477,25 +2477,25 @@
         <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI14" t="n">
         <v>401</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
         <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
@@ -2567,10 +2567,10 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2678,13 +2678,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
         <v>2.88</v>
@@ -2702,16 +2702,16 @@
         <v>6.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
         <v>5.5</v>
@@ -2738,7 +2738,7 @@
         <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
         <v>19</v>
@@ -2768,7 +2768,7 @@
         <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -2785,10 +2785,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="17">
@@ -2823,13 +2823,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2838,7 +2838,7 @@
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -2877,10 +2877,10 @@
         <v>1.67</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
         <v>12</v>
@@ -2910,7 +2910,7 @@
         <v>501</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK17" t="n">
         <v>10</v>
@@ -2919,7 +2919,7 @@
         <v>10</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
         <v>23</v>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
@@ -2992,22 +2992,22 @@
         <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
         <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3016,10 +3016,10 @@
         <v>2.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -3040,7 +3040,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3052,19 +3052,19 @@
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL18" t="n">
         <v>8.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
@@ -3280,10 +3280,10 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S20" t="n">
         <v>3.25</v>
@@ -3532,13 +3532,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3609,22 +3609,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="J23" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="K23" t="n">
-        <v>2.65</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3635,75 +3635,75 @@
         <v>4.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="R23" t="n">
-        <v>2.36</v>
+        <v>3.85</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>1.61</v>
       </c>
       <c r="T23" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X23" t="n">
         <v>1.87</v>
       </c>
       <c r="Y23" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Z23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA23" t="n">
         <v>40</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>18</v>
       </c>
       <c r="AB23" t="n">
         <v>101</v>
       </c>
       <c r="AC23" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AD23" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.4</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="n">
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="AL23" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3742,65 +3742,77 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.95</v>
+        <v>2.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="J24" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L24" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Q24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.52</v>
       </c>
-      <c r="R24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.41</v>
+      </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AC24" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH24" t="n">
         <v>30</v>
@@ -3809,22 +3821,22 @@
         <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK24" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AL24" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AM24" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AN24" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3863,22 +3875,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3887,34 +3899,34 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
@@ -3923,10 +3935,10 @@
         <v>11</v>
       </c>
       <c r="AA25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
         <v>15</v>
@@ -3947,13 +3959,13 @@
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
@@ -3962,13 +3974,17 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>29</v>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
+      <c r="AP25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
     </row>
@@ -4290,16 +4306,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
@@ -4344,10 +4360,10 @@
         <v>1.91</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
         <v>9</v>
@@ -4371,13 +4387,13 @@
         <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI28" t="n">
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
         <v>19</v>
@@ -4392,7 +4408,7 @@
         <v>29</v>
       </c>
       <c r="AO28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4578,7 +4594,7 @@
         <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J30" t="n">
         <v>5.5</v>
@@ -4587,7 +4603,7 @@
         <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4608,10 +4624,10 @@
         <v>2.38</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U30" t="n">
         <v>1.29</v>
@@ -4620,7 +4636,7 @@
         <v>3.5</v>
       </c>
       <c r="W30" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X30" t="n">
         <v>2.1</v>
@@ -4677,10 +4693,10 @@
         <v>21</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4717,13 +4733,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
         <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>3.2</v>
@@ -4735,28 +4751,28 @@
         <v>3.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U31" t="n">
         <v>1.4</v>
@@ -4765,7 +4781,7 @@
         <v>2.75</v>
       </c>
       <c r="W31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X31" t="n">
         <v>2</v>
@@ -4858,7 +4874,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>3.75</v>
@@ -4906,10 +4922,10 @@
         <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X32" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y32" t="n">
         <v>7</v>
@@ -4999,7 +5015,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H33" t="n">
         <v>3.5</v>
@@ -5008,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
         <v>2.2</v>
@@ -5017,22 +5033,22 @@
         <v>3.6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R33" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S33" t="n">
         <v>3.4</v>
@@ -5047,7 +5063,7 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X33" t="n">
         <v>2.1</v>
@@ -5140,7 +5156,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
@@ -5158,10 +5174,10 @@
         <v>3.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
         <v>1.36</v>
@@ -5170,10 +5186,10 @@
         <v>3.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
         <v>4</v>
@@ -5188,10 +5204,10 @@
         <v>2.63</v>
       </c>
       <c r="W34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y34" t="n">
         <v>7.5</v>
@@ -5287,13 +5303,13 @@
         <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="J35" t="n">
         <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L35" t="n">
         <v>2.05</v>
@@ -5311,10 +5327,10 @@
         <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S35" t="n">
         <v>2.75</v>
@@ -5329,13 +5345,13 @@
         <v>3.25</v>
       </c>
       <c r="W35" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X35" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
@@ -5365,10 +5381,10 @@
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK35" t="n">
         <v>7.5</v>
@@ -5426,101 +5442,109 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I36" t="n">
         <v>5.4</v>
       </c>
       <c r="J36" t="n">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="K36" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+        <v>5.8</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.3</v>
+      </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="S36" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+        <v>1.22</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.55</v>
+      </c>
       <c r="W36" t="n">
-        <v>2.01</v>
+        <v>2.18</v>
       </c>
       <c r="X36" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="Z36" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.4</v>
+        <v>11.25</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="AF36" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AH36" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AI36" t="n">
         <v>101</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AK36" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL36" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5559,98 +5583,106 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="J37" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="K37" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+        <v>1.72</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9.5</v>
+      </c>
       <c r="O37" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="R37" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S37" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="T37" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+        <v>1.62</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.45</v>
+      </c>
       <c r="W37" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="X37" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="Y37" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Z37" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AA37" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB37" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AC37" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AD37" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AE37" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AK37" t="n">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="AL37" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="AN37" t="n">
-        <v>8.4</v>
+        <v>10.25</v>
       </c>
       <c r="AO37" t="n">
         <v>23</v>
@@ -5692,101 +5724,109 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="K38" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="L38" t="n">
-        <v>7</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8.5</v>
+      </c>
       <c r="O38" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
         <v>2.1</v>
       </c>
       <c r="S38" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="T38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+        <v>1.45</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.1</v>
+      </c>
       <c r="W38" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X38" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="Z38" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA38" t="n">
-        <v>6.8</v>
+        <v>8.75</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AD38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG38" t="n">
         <v>23</v>
       </c>
-      <c r="AE38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>16</v>
-      </c>
       <c r="AH38" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AI38" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AJ38" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AK38" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AM38" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AN38" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AO38" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5825,63 +5865,67 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I39" t="n">
-        <v>2.1</v>
+        <v>2.47</v>
       </c>
       <c r="J39" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="K39" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L39" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+        <v>3.15</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.5</v>
+      </c>
       <c r="O39" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="R39" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="S39" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T39" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U39" t="n">
         <v>1.42</v>
       </c>
       <c r="V39" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="W39" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X39" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="Z39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AB39" t="n">
         <v>35</v>
@@ -5890,40 +5934,40 @@
         <v>24</v>
       </c>
       <c r="AD39" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE39" t="n">
-        <v>9.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI39" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AJ39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL39" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AN39" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AO39" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -5962,105 +6006,109 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="K40" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="L40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+        <v>3.95</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.3</v>
+      </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="P40" t="n">
-        <v>3.3</v>
+        <v>2.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="R40" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="T40" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="U40" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="V40" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="W40" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>2.01</v>
+        <v>1.72</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AB40" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG40" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="AH40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>35</v>
+      </c>
+      <c r="AO40" t="n">
         <v>50</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>27</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6098,41 +6146,111 @@
           <t>Hougang</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>29</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>17</v>
+      </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
@@ -6169,41 +6287,111 @@
           <t>Tampines</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>34</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>21</v>
+      </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
@@ -6240,41 +6428,111 @@
           <t>Al Wasl</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>22</v>
+      </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1136,25 +1136,25 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1.2</v>
@@ -1172,10 +1172,10 @@
         <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1187,10 +1187,10 @@
         <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1202,7 +1202,7 @@
         <v>67</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>17</v>
@@ -1217,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1274,10 +1274,10 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1551,10 +1551,10 @@
         <v>1.32</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.78</v>
@@ -1584,19 +1584,19 @@
         <v>1.27</v>
       </c>
       <c r="U8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V8" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="W8" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z8" t="n">
         <v>70</v>
@@ -1611,7 +1611,7 @@
         <v>175</v>
       </c>
       <c r="AD8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AE8" t="n">
         <v>6.9</v>
@@ -1620,10 +1620,10 @@
         <v>9.25</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI8" t="n">
         <v>101</v>
@@ -1683,34 +1683,34 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
         <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="J9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="L9" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q9" t="n">
         <v>3.3</v>
@@ -1719,73 +1719,73 @@
         <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.09</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W9" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="X9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB9" t="n">
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AF9" t="n">
         <v>5.8</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI9" t="n">
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
         <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1824,28 +1824,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I10" t="n">
         <v>2.95</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>1.75</v>
       </c>
       <c r="L10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.65</v>
@@ -1872,13 +1872,13 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="X10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z10" t="n">
         <v>12.5</v>
@@ -1890,19 +1890,19 @@
         <v>37</v>
       </c>
       <c r="AC10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AG10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>150</v>
@@ -1911,7 +1911,7 @@
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -1923,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="AN10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -1965,31 +1965,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2001,49 +2001,49 @@
         <v>2.35</v>
       </c>
       <c r="S11" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
@@ -2052,28 +2052,28 @@
         <v>151</v>
       </c>
       <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
         <v>17</v>
       </c>
-      <c r="AK11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>15</v>
-      </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2116,7 +2116,7 @@
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
         <v>4.33</v>
@@ -2128,13 +2128,13 @@
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
         <v>2.75</v>
@@ -2149,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2158,10 +2158,10 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X12" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2269,13 +2269,13 @@
         <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
         <v>6.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
         <v>2.5</v>
@@ -2290,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
@@ -2302,7 +2302,7 @@
         <v>2.05</v>
       </c>
       <c r="X13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -2408,16 +2408,16 @@
         <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2426,10 +2426,10 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2444,10 +2444,10 @@
         <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
@@ -2468,7 +2468,7 @@
         <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF14" t="n">
         <v>6.5</v>
@@ -2477,7 +2477,7 @@
         <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="n">
         <v>401</v>
@@ -2567,10 +2567,10 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2785,10 +2785,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>2.6</v>
@@ -3433,16 +3433,16 @@
         <v>1.33</v>
       </c>
       <c r="U21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -3460,7 +3460,7 @@
         <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3532,46 +3532,90 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
         <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+        <v>3.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.6</v>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.22</v>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>22</v>
+      </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
@@ -3609,22 +3653,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H23" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="I23" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="J23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3635,33 +3679,33 @@
         <v>4.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="R23" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="T23" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="X23" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z23" t="n">
         <v>101</v>
       </c>
       <c r="AA23" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
         <v>101</v>
@@ -3670,19 +3714,19 @@
         <v>101</v>
       </c>
       <c r="AD23" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AH23" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AI23" t="n">
         <v>101</v>
@@ -3691,19 +3735,19 @@
         <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AL23" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM23" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3875,22 +3919,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3905,7 +3949,7 @@
         <v>4.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
         <v>2.25</v>
@@ -3923,34 +3967,34 @@
         <v>3.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>8.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3959,22 +4003,22 @@
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
         <v>13</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>12</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
         <v>29</v>
@@ -4020,13 +4064,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
         <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
         <v>4.5</v>
@@ -4035,7 +4079,7 @@
         <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -4062,16 +4106,16 @@
         <v>1.29</v>
       </c>
       <c r="U26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X26" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -4080,7 +4124,7 @@
         <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
@@ -4104,25 +4148,25 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL26" t="n">
         <v>8.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
         <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4161,19 +4205,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H27" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L27" t="n">
         <v>6</v>
@@ -4185,28 +4229,28 @@
         <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V27" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
         <v>1.91</v>
@@ -4215,7 +4259,7 @@
         <v>1.91</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z27" t="n">
         <v>7.5</v>
@@ -4224,19 +4268,19 @@
         <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG27" t="n">
         <v>17</v>
@@ -4245,13 +4289,13 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
         <v>19</v>
@@ -4309,61 +4353,61 @@
         <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
         <v>2.63</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.29</v>
       </c>
-      <c r="P28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X28" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA28" t="n">
         <v>9</v>
@@ -4375,10 +4419,10 @@
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>6.5</v>
@@ -4387,10 +4431,10 @@
         <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ28" t="n">
         <v>11</v>
@@ -4408,7 +4452,7 @@
         <v>29</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4465,28 +4509,28 @@
         <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U29" t="n">
         <v>1.5</v>
@@ -4531,7 +4575,7 @@
         <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.5</v>
@@ -4600,7 +4644,7 @@
         <v>5.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.95</v>
@@ -4618,16 +4662,16 @@
         <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S30" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U30" t="n">
         <v>1.29</v>
@@ -4636,16 +4680,16 @@
         <v>3.5</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
         <v>17</v>
@@ -4669,16 +4713,16 @@
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="n">
         <v>151</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>8.5</v>
@@ -4693,10 +4737,10 @@
         <v>21</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4763,16 +4807,16 @@
         <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U31" t="n">
         <v>1.4</v>
@@ -5159,19 +5203,19 @@
         <v>2.25</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
@@ -5180,10 +5224,10 @@
         <v>8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P34" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
         <v>2.2</v>
@@ -5198,19 +5242,19 @@
         <v>1.25</v>
       </c>
       <c r="U34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X34" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z34" t="n">
         <v>10</v>
@@ -5222,13 +5266,13 @@
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF34" t="n">
         <v>6</v>
@@ -5240,7 +5284,7 @@
         <v>51</v>
       </c>
       <c r="AI34" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ34" t="n">
         <v>9</v>
@@ -5255,7 +5299,7 @@
         <v>34</v>
       </c>
       <c r="AN34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO34" t="n">
         <v>41</v>
@@ -5312,7 +5356,7 @@
         <v>2.4</v>
       </c>
       <c r="L35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -5321,10 +5365,10 @@
         <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q35" t="n">
         <v>1.67</v>
@@ -5333,16 +5377,16 @@
         <v>2.2</v>
       </c>
       <c r="S35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W35" t="n">
         <v>1.8</v>
@@ -5375,7 +5419,7 @@
         <v>8</v>
       </c>
       <c r="AG35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
         <v>51</v>
@@ -5442,22 +5486,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H36" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L36" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
@@ -5466,10 +5510,10 @@
         <v>6.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P36" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q36" t="n">
         <v>2.2</v>
@@ -5490,37 +5534,37 @@
         <v>2.55</v>
       </c>
       <c r="W36" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="X36" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Y36" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AA36" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB36" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AC36" t="n">
         <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="n">
         <v>6.3</v>
       </c>
       <c r="AF36" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG36" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH36" t="n">
         <v>150</v>
@@ -5529,22 +5573,22 @@
         <v>101</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN36" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AO36" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5583,22 +5627,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I37" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="K37" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L37" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -5607,85 +5651,85 @@
         <v>9.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P37" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="R37" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="S37" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="T37" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="V37" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="W37" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="X37" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="Y37" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Z37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="n">
         <v>60</v>
       </c>
-      <c r="AA37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>70</v>
-      </c>
       <c r="AE37" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF37" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ37" t="n">
+      <c r="AK37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL37" t="n">
         <v>9</v>
       </c>
-      <c r="AK37" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AM37" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AN37" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO37" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5865,31 +5909,31 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="H39" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.47</v>
+        <v>2.22</v>
       </c>
       <c r="J39" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L39" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P39" t="n">
         <v>2.92</v>
@@ -5901,7 +5945,7 @@
         <v>1.7</v>
       </c>
       <c r="S39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T39" t="n">
         <v>1.27</v>
@@ -5910,64 +5954,64 @@
         <v>1.42</v>
       </c>
       <c r="V39" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="W39" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X39" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Y39" t="n">
         <v>8.75</v>
       </c>
       <c r="Z39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB39" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AD39" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF39" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH39" t="n">
         <v>65</v>
       </c>
       <c r="AI39" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ39" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL39" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM39" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AN39" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6006,109 +6050,109 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="K40" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L40" t="n">
         <v>3.95</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="O40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.42</v>
       </c>
-      <c r="P40" t="n">
+      <c r="V40" t="n">
         <v>2.67</v>
       </c>
-      <c r="Q40" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.52</v>
-      </c>
       <c r="W40" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="X40" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="Z40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA40" t="n">
         <v>8.75</v>
       </c>
-      <c r="AA40" t="n">
-        <v>9</v>
-      </c>
       <c r="AB40" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD40" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AE40" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK40" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>900</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>16</v>
-      </c>
       <c r="AL40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM40" t="n">
         <v>45</v>
       </c>
       <c r="AN40" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO40" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6147,28 +6191,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I41" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
         <v>2.63</v>
       </c>
       <c r="L41" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O41" t="n">
         <v>1.1</v>
@@ -6201,25 +6245,25 @@
         <v>3</v>
       </c>
       <c r="Y41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="n">
         <v>21</v>
       </c>
-      <c r="AA41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB41" t="n">
+      <c r="AD41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE41" t="n">
         <v>34</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>29</v>
       </c>
       <c r="AF41" t="n">
         <v>11</v>
@@ -6237,13 +6281,13 @@
         <v>15</v>
       </c>
       <c r="AK41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL41" t="n">
         <v>9.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN41" t="n">
         <v>13</v>
@@ -6288,22 +6332,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H42" t="n">
         <v>4.75</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="n">
         <v>2.63</v>
       </c>
       <c r="L42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
@@ -6336,10 +6380,10 @@
         <v>4.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y42" t="n">
         <v>15</v>
@@ -6348,7 +6392,7 @@
         <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB42" t="n">
         <v>17</v>
@@ -6369,25 +6413,25 @@
         <v>13</v>
       </c>
       <c r="AH42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI42" t="n">
         <v>81</v>
       </c>
       <c r="AJ42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM42" t="n">
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
         <v>21</v>
@@ -6429,109 +6473,109 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="H43" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I43" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J43" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
         <v>2.27</v>
       </c>
       <c r="L43" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P43" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="T43" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V43" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="W43" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="X43" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z43" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA43" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AC43" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AG43" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI43" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AJ43" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AK43" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AL43" t="n">
         <v>8</v>
       </c>
       <c r="AM43" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AN43" t="n">
         <v>12.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -704,16 +704,16 @@
         <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -755,13 +755,13 @@
         <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -937,8 +937,12 @@
       <c r="AO3" t="n">
         <v>41</v>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.82</v>
+      </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
     </row>
@@ -1115,7 +1119,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1139,10 +1143,10 @@
         <v>23</v>
       </c>
       <c r="O5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
         <v>1.33</v>
@@ -1172,7 +1176,7 @@
         <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1259,19 +1263,19 @@
         <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
         <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1328,10 +1332,10 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1542,16 +1546,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1563,67 +1567,67 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U8" t="n">
         <v>1.4</v>
       </c>
       <c r="V8" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="X8" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="n">
         <v>35</v>
       </c>
       <c r="AB8" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AC8" t="n">
         <v>175</v>
       </c>
       <c r="AD8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI8" t="n">
         <v>101</v>
@@ -1638,7 +1642,7 @@
         <v>9.25</v>
       </c>
       <c r="AM8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AN8" t="n">
         <v>13.5</v>
@@ -1692,13 +1696,13 @@
         <v>4.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K9" t="n">
         <v>1.72</v>
       </c>
       <c r="L9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.19</v>
@@ -1713,13 +1717,13 @@
         <v>1.93</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
         <v>1.09</v>
@@ -1731,34 +1735,34 @@
         <v>1.95</v>
       </c>
       <c r="W9" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="X9" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB9" t="n">
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
         <v>4.15</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG9" t="n">
         <v>25</v>
@@ -1770,22 +1774,22 @@
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM9" t="n">
         <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1824,13 +1828,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="H10" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
@@ -1839,13 +1843,13 @@
         <v>1.75</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M10" t="n">
         <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="O10" t="n">
         <v>1.65</v>
@@ -1857,55 +1861,55 @@
         <v>2.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
         <v>1.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
         <v>11.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI10" t="n">
         <v>101</v>
@@ -1914,7 +1918,7 @@
         <v>6.1</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL10" t="n">
         <v>11.75</v>
@@ -1923,7 +1927,7 @@
         <v>40</v>
       </c>
       <c r="AN10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO10" t="n">
         <v>60</v>
@@ -1971,7 +1975,7 @@
         <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -1983,28 +1987,28 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.53</v>
       </c>
       <c r="U11" t="n">
         <v>1.29</v>
@@ -2013,16 +2017,16 @@
         <v>3.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
@@ -2040,10 +2044,10 @@
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
@@ -2061,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
         <v>41</v>
@@ -2070,10 +2074,10 @@
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2122,16 +2126,16 @@
         <v>4.33</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2146,10 +2150,10 @@
         <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2182,10 +2186,10 @@
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>17</v>
@@ -2194,7 +2198,7 @@
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ12" t="n">
         <v>6.5</v>
@@ -2269,10 +2273,10 @@
         <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -2281,10 +2285,10 @@
         <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2326,7 +2330,7 @@
         <v>6.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
@@ -2350,7 +2354,7 @@
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
         <v>41</v>
@@ -2358,10 +2362,10 @@
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="14">
@@ -2408,7 +2412,7 @@
         <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>4.33</v>
@@ -2468,7 +2472,7 @@
         <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>6.5</v>
@@ -2585,10 +2589,10 @@
         <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X15" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y15" t="n">
         <v>7</v>
@@ -2603,7 +2607,7 @@
         <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD15" t="n">
         <v>34</v>
@@ -2627,7 +2631,7 @@
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>12</v>
@@ -2687,7 +2691,7 @@
         <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>1.91</v>
@@ -2696,10 +2700,10 @@
         <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.53</v>
@@ -2720,10 +2724,10 @@
         <v>1.14</v>
       </c>
       <c r="U16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
         <v>2.2</v>
@@ -2765,7 +2769,7 @@
         <v>501</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="n">
         <v>17</v>
@@ -2829,7 +2833,7 @@
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -3067,7 +3071,7 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -3127,10 +3131,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
@@ -3139,10 +3143,10 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
         <v>3.5</v>
@@ -3250,16 +3254,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -3280,10 +3284,10 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
         <v>3.25</v>
@@ -3316,19 +3320,19 @@
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
         <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>51</v>
@@ -3337,7 +3341,7 @@
         <v>251</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3566,7 +3570,7 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z22" t="n">
         <v>9.25</v>
@@ -3795,13 +3799,13 @@
         <v>2.15</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
         <v>2.15</v>
       </c>
       <c r="L24" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -3832,10 +3836,10 @@
         <v>2.41</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3847,7 +3851,7 @@
         <v>18</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
@@ -3859,7 +3863,7 @@
         <v>9.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
         <v>150</v>
@@ -3874,7 +3878,7 @@
         <v>7.4</v>
       </c>
       <c r="AM24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN24" t="n">
         <v>13</v>
@@ -3919,22 +3923,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L25" t="n">
         <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3943,22 +3947,22 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U25" t="n">
         <v>1.3</v>
@@ -3976,25 +3980,25 @@
         <v>9.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
         <v>8.5</v>
       </c>
       <c r="AB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC25" t="n">
         <v>15</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
       </c>
       <c r="AD25" t="n">
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4006,19 +4010,19 @@
         <v>151</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>29</v>
@@ -4073,7 +4077,7 @@
         <v>1.85</v>
       </c>
       <c r="J26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
@@ -4088,34 +4092,34 @@
         <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X26" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -4148,7 +4152,7 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
@@ -4166,7 +4170,7 @@
         <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4350,16 +4354,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
@@ -4368,10 +4372,10 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.33</v>
@@ -4410,10 +4414,10 @@
         <v>9.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
@@ -4422,10 +4426,10 @@
         <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -4437,10 +4441,10 @@
         <v>600</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
         <v>13</v>
@@ -4491,28 +4495,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
         <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
@@ -4521,16 +4525,16 @@
         <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U29" t="n">
         <v>1.5</v>
@@ -4539,10 +4543,10 @@
         <v>2.5</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y29" t="n">
         <v>7</v>
@@ -4563,13 +4567,13 @@
         <v>34</v>
       </c>
       <c r="AE29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF29" t="n">
         <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
@@ -4578,7 +4582,7 @@
         <v>900</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
         <v>15</v>
@@ -4674,10 +4678,10 @@
         <v>1.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W30" t="n">
         <v>1.73</v>
@@ -4704,7 +4708,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -4734,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
         <v>1.98</v>
@@ -4786,7 +4790,7 @@
         <v>2.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
@@ -4807,10 +4811,10 @@
         <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R31" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S31" t="n">
         <v>3.4</v>
@@ -4825,16 +4829,16 @@
         <v>2.75</v>
       </c>
       <c r="W31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
         <v>10</v>
@@ -4849,7 +4853,7 @@
         <v>29</v>
       </c>
       <c r="AE31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
@@ -5068,13 +5072,13 @@
         <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -5101,19 +5105,19 @@
         <v>1.33</v>
       </c>
       <c r="U33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="X33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z33" t="n">
         <v>11</v>
@@ -5125,13 +5129,13 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="n">
         <v>26</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF33" t="n">
         <v>6.5</v>
@@ -5143,13 +5147,13 @@
         <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL33" t="n">
         <v>11</v>
@@ -5161,7 +5165,7 @@
         <v>23</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5212,7 +5216,7 @@
         <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L34" t="n">
         <v>4</v>
@@ -5627,22 +5631,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="H37" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="J37" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="K37" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -5651,85 +5655,85 @@
         <v>9.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="R37" t="n">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="S37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X37" t="n">
         <v>1.91</v>
       </c>
-      <c r="T37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X37" t="n">
-        <v>2.05</v>
-      </c>
       <c r="Y37" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Z37" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AA37" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB37" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AC37" t="n">
         <v>80</v>
       </c>
       <c r="AD37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AN37" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF37" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>10</v>
-      </c>
       <c r="AO37" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5768,64 +5772,64 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H38" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I38" t="n">
         <v>8.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="K38" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="L38" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P38" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="R38" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S38" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="U38" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="V38" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="W38" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="X38" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="Z38" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AA38" t="n">
         <v>8.75</v>
@@ -5834,31 +5838,31 @@
         <v>7.8</v>
       </c>
       <c r="AC38" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AE38" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG38" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH38" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI38" t="n">
         <v>900</v>
       </c>
       <c r="AJ38" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL38" t="n">
         <v>28</v>
@@ -5867,10 +5871,10 @@
         <v>250</v>
       </c>
       <c r="AN38" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO38" t="n">
         <v>110</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>90</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -6050,22 +6054,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="H40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J40" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="K40" t="n">
         <v>2.12</v>
       </c>
       <c r="L40" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -6077,16 +6081,16 @@
         <v>1.35</v>
       </c>
       <c r="P40" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R40" t="n">
         <v>1.7</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T40" t="n">
         <v>1.26</v>
@@ -6098,25 +6102,25 @@
         <v>2.67</v>
       </c>
       <c r="W40" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="X40" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Z40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA40" t="n">
         <v>9</v>
       </c>
-      <c r="AA40" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AB40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD40" t="n">
         <v>32</v>
@@ -6125,10 +6129,10 @@
         <v>6.8</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH40" t="n">
         <v>80</v>
@@ -6137,22 +6141,22 @@
         <v>700</v>
       </c>
       <c r="AJ40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK40" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AM40" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO40" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6332,28 +6336,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H42" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="n">
         <v>2.63</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O42" t="n">
         <v>1.1</v>
@@ -6392,19 +6396,19 @@
         <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD42" t="n">
         <v>17</v>
       </c>
       <c r="AE42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF42" t="n">
         <v>11</v>
@@ -6413,25 +6417,25 @@
         <v>13</v>
       </c>
       <c r="AH42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI42" t="n">
         <v>81</v>
       </c>
       <c r="AJ42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM42" t="n">
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO42" t="n">
         <v>21</v>
@@ -6473,22 +6477,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I43" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
@@ -6509,73 +6513,73 @@
         <v>2</v>
       </c>
       <c r="S43" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="T43" t="n">
         <v>1.4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="V43" t="n">
         <v>2.92</v>
       </c>
       <c r="W43" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X43" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="Y43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA43" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AB43" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AC43" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AD43" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE43" t="n">
         <v>8</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AG43" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ43" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AK43" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AL43" t="n">
         <v>8</v>
       </c>
       <c r="AM43" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AN43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -710,10 +710,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>2.05</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -851,10 +851,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
@@ -993,7 +993,7 @@
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1041,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>41</v>
@@ -1050,7 +1050,7 @@
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
         <v>7</v>
@@ -1062,7 +1062,7 @@
         <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ4" t="n">
         <v>7</v>
@@ -1140,13 +1140,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
         <v>1.33</v>
@@ -1263,7 +1263,7 @@
         <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>5.75</v>
@@ -1272,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
@@ -1308,10 +1308,10 @@
         <v>3.75</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
@@ -1320,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1332,10 +1332,10 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1546,58 +1546,58 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J8" t="n">
         <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U8" t="n">
         <v>1.4</v>
       </c>
       <c r="V8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="W8" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Y8" t="n">
         <v>20</v>
@@ -1615,25 +1615,25 @@
         <v>175</v>
       </c>
       <c r="AD8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI8" t="n">
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>5.1</v>
@@ -1642,7 +1642,7 @@
         <v>9.25</v>
       </c>
       <c r="AM8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AN8" t="n">
         <v>13.5</v>
@@ -2403,7 +2403,7 @@
         <v>2.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>3.5</v>
@@ -2418,10 +2418,10 @@
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2682,10 +2682,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
         <v>3.9</v>
@@ -2789,10 +2789,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="17">
@@ -2972,13 +2972,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
@@ -3065,10 +3065,10 @@
         <v>8.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
         <v>17</v>
@@ -3395,13 +3395,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J21" t="n">
         <v>2.6</v>
@@ -3539,74 +3539,78 @@
         <v>1.85</v>
       </c>
       <c r="H22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L22" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.6</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.54</v>
+      </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>8.75</v>
+        <v>7.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AG22" t="n">
         <v>11</v>
       </c>
-      <c r="AD22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH22" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL22" t="n">
         <v>10</v>
@@ -3615,10 +3619,10 @@
         <v>35</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3793,19 +3797,19 @@
         <v>2.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
         <v>2.15</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>2.15</v>
       </c>
       <c r="L24" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -3836,10 +3840,10 @@
         <v>2.41</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3848,16 +3852,16 @@
         <v>32</v>
       </c>
       <c r="AC24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG24" t="n">
         <v>9.5</v>
@@ -3869,22 +3873,22 @@
         <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AL24" t="n">
         <v>7.4</v>
       </c>
       <c r="AM24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN24" t="n">
         <v>13</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3923,22 +3927,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3947,22 +3951,22 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U25" t="n">
         <v>1.3</v>
@@ -3971,22 +3975,22 @@
         <v>3.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
         <v>15</v>
@@ -4001,31 +4005,31 @@
         <v>7.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO25" t="n">
         <v>26</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>29</v>
       </c>
       <c r="AP25" t="n">
         <v>2.05</v>
@@ -4233,10 +4237,10 @@
         <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
         <v>1.75</v>
@@ -4245,10 +4249,10 @@
         <v>2.05</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U27" t="n">
         <v>1.36</v>
@@ -4354,46 +4358,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U28" t="n">
         <v>1.44</v>
@@ -4414,10 +4418,10 @@
         <v>9.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
@@ -4426,10 +4430,10 @@
         <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -4441,10 +4445,10 @@
         <v>600</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="n">
         <v>13</v>
@@ -4495,46 +4499,46 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U29" t="n">
         <v>1.5</v>
@@ -4543,16 +4547,16 @@
         <v>2.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
@@ -4594,7 +4598,7 @@
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
         <v>41</v>
@@ -4666,16 +4670,16 @@
         <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U30" t="n">
         <v>1.3</v>
@@ -4741,10 +4745,10 @@
         <v>23</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4922,10 +4926,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
         <v>4.2</v>
@@ -4952,10 +4956,10 @@
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S32" t="n">
         <v>3.4</v>
@@ -5009,16 +5013,16 @@
         <v>301</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
         <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN32" t="n">
         <v>34</v>
@@ -5066,13 +5070,13 @@
         <v>2.25</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J33" t="n">
         <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.87</v>
       </c>
       <c r="K33" t="n">
         <v>2.1</v>
@@ -5093,16 +5097,16 @@
         <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U33" t="n">
         <v>1.4</v>
@@ -5132,7 +5136,7 @@
         <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE33" t="n">
         <v>10</v>
@@ -5141,16 +5145,16 @@
         <v>6.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="n">
         <v>201</v>
       </c>
       <c r="AJ33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK33" t="n">
         <v>15</v>
@@ -5162,7 +5166,7 @@
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO33" t="n">
         <v>34</v>
@@ -5493,10 +5497,10 @@
         <v>1.53</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J36" t="n">
         <v>2.1</v>
@@ -5505,13 +5509,13 @@
         <v>2.12</v>
       </c>
       <c r="L36" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O36" t="n">
         <v>1.42</v>
@@ -5538,22 +5542,22 @@
         <v>2.55</v>
       </c>
       <c r="W36" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="X36" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Y36" t="n">
         <v>5.1</v>
       </c>
       <c r="Z36" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA36" t="n">
         <v>8.75</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
         <v>15</v>
@@ -5562,10 +5566,10 @@
         <v>40</v>
       </c>
       <c r="AE36" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG36" t="n">
         <v>24</v>
@@ -5577,7 +5581,7 @@
         <v>101</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK36" t="n">
         <v>35</v>
@@ -5631,22 +5635,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I37" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="J37" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="K37" t="n">
         <v>2.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -5658,16 +5662,16 @@
         <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R37" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="S37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T37" t="n">
         <v>1.65</v>
@@ -5676,40 +5680,40 @@
         <v>1.26</v>
       </c>
       <c r="V37" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="W37" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="X37" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="Y37" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z37" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA37" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB37" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AC37" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE37" t="n">
         <v>9.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH37" t="n">
         <v>75</v>
@@ -5721,13 +5725,13 @@
         <v>9</v>
       </c>
       <c r="AK37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AL37" t="n">
         <v>8.75</v>
       </c>
       <c r="AM37" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AN37" t="n">
         <v>10.25</v>
@@ -5772,100 +5776,100 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="H38" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="I38" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="J38" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="K38" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L38" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R38" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S38" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="U38" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="V38" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="W38" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="X38" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y38" t="n">
         <v>6</v>
       </c>
       <c r="Z38" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AC38" t="n">
         <v>12</v>
       </c>
       <c r="AD38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE38" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH38" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI38" t="n">
         <v>900</v>
       </c>
       <c r="AJ38" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM38" t="n">
         <v>250</v>
@@ -6054,52 +6058,52 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I40" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="K40" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="U40" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="V40" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="W40" t="n">
         <v>1.85</v>
@@ -6108,55 +6112,55 @@
         <v>1.85</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="Z40" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC40" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE40" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG40" t="n">
         <v>15.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AJ40" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AL40" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AM40" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AN40" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AO40" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6477,109 +6481,109 @@
         </is>
       </c>
       <c r="G43" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J43" t="n">
         <v>5.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.3</v>
-      </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="L43" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="O43" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="P43" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="S43" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="T43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U43" t="n">
         <v>1.4</v>
       </c>
-      <c r="U43" t="n">
-        <v>1.35</v>
-      </c>
       <c r="V43" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="W43" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="X43" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA43" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AC43" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE43" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AG43" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AJ43" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="AK43" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AL43" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM43" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AN43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO43" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -740,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -764,7 +764,7 @@
         <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>7.5</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -987,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1044,13 +1044,13 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="n">
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>7</v>
@@ -1062,13 +1062,13 @@
         <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ4" t="n">
         <v>7</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL4" t="n">
         <v>10</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1143,10 +1143,10 @@
         <v>29</v>
       </c>
       <c r="O5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
         <v>1.33</v>
@@ -1269,7 +1269,7 @@
         <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
         <v>2.63</v>
@@ -1344,7 +1344,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
@@ -1546,109 +1546,109 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="U8" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="V8" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="X8" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC8" t="n">
         <v>175</v>
       </c>
       <c r="AD8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI8" t="n">
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AK8" t="n">
         <v>5.1</v>
       </c>
       <c r="AL8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1696,28 +1696,28 @@
         <v>4.45</v>
       </c>
       <c r="J9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>1.72</v>
       </c>
       <c r="L9" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.19</v>
       </c>
       <c r="N9" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
@@ -1726,7 +1726,7 @@
         <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="U9" t="n">
         <v>1.75</v>
@@ -1735,37 +1735,37 @@
         <v>1.95</v>
       </c>
       <c r="W9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
         <v>1.47</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB9" t="n">
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AF9" t="n">
         <v>5.7</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
         <v>200</v>
@@ -1774,22 +1774,22 @@
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM9" t="n">
         <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1828,109 +1828,109 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X10" t="n">
         <v>1.65</v>
       </c>
-      <c r="P10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Y10" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD10" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="AF10" t="n">
         <v>5.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI10" t="n">
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AK10" t="n">
         <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM10" t="n">
         <v>40</v>
       </c>
       <c r="AN10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -1969,16 +1969,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
         <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K11" t="n">
         <v>2.5</v>
@@ -1987,16 +1987,16 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.53</v>
@@ -2023,7 +2023,7 @@
         <v>2.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
         <v>8.5</v>
@@ -2047,7 +2047,7 @@
         <v>9.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
@@ -2062,10 +2062,10 @@
         <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
         <v>41</v>
@@ -2074,10 +2074,10 @@
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2285,10 +2285,10 @@
         <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2362,10 +2362,10 @@
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="14">
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2589,10 +2589,10 @@
         <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X15" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y15" t="n">
         <v>7</v>
@@ -2607,7 +2607,7 @@
         <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="n">
         <v>34</v>
@@ -2625,7 +2625,7 @@
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
@@ -2634,10 +2634,10 @@
         <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
         <v>29</v>
@@ -2700,10 +2700,10 @@
         <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.53</v>
@@ -2789,10 +2789,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="17">
@@ -2845,10 +2845,10 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2990,10 +2990,10 @@
         <v>2.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -3311,7 +3311,7 @@
         <v>7</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
         <v>8.5</v>
@@ -3326,7 +3326,7 @@
         <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>7</v>
@@ -3341,7 +3341,7 @@
         <v>251</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -3353,7 +3353,7 @@
         <v>51</v>
       </c>
       <c r="AN20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
         <v>41</v>
@@ -3539,7 +3539,7 @@
         <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
         <v>3.4</v>
@@ -3574,7 +3574,7 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z22" t="n">
         <v>8.25</v>
@@ -3598,7 +3598,7 @@
         <v>6.3</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH22" t="n">
         <v>40</v>
@@ -3610,7 +3610,7 @@
         <v>10.25</v>
       </c>
       <c r="AK22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL22" t="n">
         <v>10</v>
@@ -3661,22 +3661,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="I23" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3707,13 +3707,13 @@
         <v>1.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Z23" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
         <v>101</v>
@@ -3722,40 +3722,40 @@
         <v>101</v>
       </c>
       <c r="AD23" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AE23" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AI23" t="n">
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="AL23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AM23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3814,10 +3814,10 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Q24" t="n">
         <v>1.6</v>
@@ -3826,18 +3826,18 @@
         <v>2.07</v>
       </c>
       <c r="S24" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="Y24" t="n">
         <v>10.5</v>
@@ -3927,70 +3927,70 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
         <v>2.63</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X25" t="n">
         <v>2.5</v>
       </c>
-      <c r="T25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
         <v>9</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
         <v>15</v>
@@ -3999,7 +3999,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>7.5</v>
@@ -4008,10 +4008,10 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
@@ -4026,16 +4026,16 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO25" t="n">
         <v>23</v>
       </c>
-      <c r="AO25" t="n">
-        <v>26</v>
-      </c>
       <c r="AP25" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H26" t="n">
         <v>3.5</v>
@@ -4096,10 +4096,10 @@
         <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q26" t="n">
         <v>2.05</v>
@@ -4108,10 +4108,10 @@
         <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U26" t="n">
         <v>1.44</v>
@@ -4120,10 +4120,10 @@
         <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X26" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -4144,13 +4144,13 @@
         <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
         <v>6.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
@@ -4159,7 +4159,7 @@
         <v>301</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK26" t="n">
         <v>8.5</v>
@@ -4243,10 +4243,10 @@
         <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R27" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S27" t="n">
         <v>2.75</v>
@@ -4358,13 +4358,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J28" t="n">
         <v>2.63</v>
@@ -4376,52 +4376,52 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.8</v>
       </c>
-      <c r="S28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X28" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y28" t="n">
         <v>7.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
         <v>9</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
@@ -4430,7 +4430,7 @@
         <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF28" t="n">
         <v>6.5</v>
@@ -4460,7 +4460,7 @@
         <v>29</v>
       </c>
       <c r="AO28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L29" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
@@ -4529,34 +4529,34 @@
         <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W29" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
@@ -4571,13 +4571,13 @@
         <v>34</v>
       </c>
       <c r="AE29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
         <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
@@ -4586,19 +4586,19 @@
         <v>900</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK29" t="n">
         <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM29" t="n">
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
         <v>41</v>
@@ -4658,10 +4658,10 @@
         <v>1.95</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -4682,10 +4682,10 @@
         <v>1.53</v>
       </c>
       <c r="U30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W30" t="n">
         <v>1.73</v>
@@ -4694,7 +4694,7 @@
         <v>2</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="n">
         <v>29</v>
@@ -4712,25 +4712,25 @@
         <v>41</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI30" t="n">
         <v>151</v>
       </c>
       <c r="AJ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK30" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>8.5</v>
@@ -4742,13 +4742,13 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4950,16 +4950,16 @@
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S32" t="n">
         <v>3.4</v>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -5103,10 +5103,10 @@
         <v>1.85</v>
       </c>
       <c r="S33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U33" t="n">
         <v>1.4</v>
@@ -5154,7 +5154,7 @@
         <v>201</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK33" t="n">
         <v>15</v>
@@ -5352,13 +5352,13 @@
         <v>6.5</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I35" t="n">
         <v>1.5</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.4</v>
@@ -5367,10 +5367,10 @@
         <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
         <v>1.2</v>
@@ -5379,10 +5379,10 @@
         <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
         <v>2.63</v>
@@ -5397,10 +5397,10 @@
         <v>3.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X35" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
         <v>19</v>
@@ -5421,7 +5421,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>8</v>
@@ -5430,16 +5430,16 @@
         <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="n">
         <v>201</v>
       </c>
       <c r="AJ35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK35" t="n">
         <v>8</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>7.5</v>
       </c>
       <c r="AL35" t="n">
         <v>8.5</v>
@@ -5451,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="AO35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP35" t="n">
         <v>2.05</v>
@@ -5494,85 +5494,85 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
         <v>5.9</v>
       </c>
       <c r="J36" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2.1</v>
       </c>
-      <c r="K36" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L36" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="R36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z36" t="n">
         <v>6.2</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AA36" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD36" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE36" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AG36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH36" t="n">
         <v>150</v>
@@ -5581,22 +5581,22 @@
         <v>101</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK36" t="n">
         <v>35</v>
       </c>
       <c r="AL36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO36" t="n">
         <v>90</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>100</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -6340,46 +6340,46 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H42" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K42" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O42" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U42" t="n">
         <v>1.2</v>
@@ -6400,49 +6400,49 @@
         <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG42" t="n">
         <v>13</v>
       </c>
       <c r="AH42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI42" t="n">
         <v>81</v>
       </c>
       <c r="AJ42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM42" t="n">
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6484,58 +6484,58 @@
         <v>5.6</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I43" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J43" t="n">
         <v>5.5</v>
       </c>
       <c r="K43" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L43" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P43" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="Q43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R43" t="n">
         <v>1.9</v>
       </c>
-      <c r="R43" t="n">
-        <v>1.82</v>
-      </c>
       <c r="S43" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="T43" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="U43" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="V43" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="W43" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="X43" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z43" t="n">
         <v>35</v>
@@ -6547,43 +6547,43 @@
         <v>110</v>
       </c>
       <c r="AC43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH43" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AJ43" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AK43" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AL43" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM43" t="n">
         <v>11</v>
       </c>
       <c r="AN43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -710,10 +710,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -836,10 +836,10 @@
         <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.05</v>
@@ -857,10 +857,10 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
         <v>1.67</v>
@@ -869,10 +869,10 @@
         <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U3" t="n">
         <v>1.3</v>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>8.5</v>
@@ -905,7 +905,7 @@
         <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
@@ -926,7 +926,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>67</v>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1044,7 +1044,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="n">
         <v>41</v>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL4" t="n">
         <v>10</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1137,10 +1137,10 @@
         <v>2.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>1.95</v>
@@ -1275,7 +1275,7 @@
         <v>2.63</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1284,10 +1284,10 @@
         <v>19</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
         <v>1.44</v>
@@ -1302,10 +1302,10 @@
         <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W6" t="n">
         <v>1.53</v>
@@ -1320,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1344,7 +1344,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1425,22 +1425,22 @@
         <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="n">
         <v>1.3</v>
@@ -1455,7 +1455,7 @@
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
         <v>21</v>
@@ -1467,10 +1467,10 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1500,16 +1500,16 @@
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1546,46 +1546,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="J8" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P8" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="U8" t="n">
         <v>1.47</v>
@@ -1594,37 +1594,37 @@
         <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="X8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AC8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH8" t="n">
         <v>250</v>
@@ -1633,22 +1633,22 @@
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AK8" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AL8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM8" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1828,109 +1828,109 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="I10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.95</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.7</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>4.85</v>
+        <v>5.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W10" t="n">
         <v>2.18</v>
       </c>
-      <c r="W10" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X10" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD10" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI10" t="n">
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AK10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AM10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2126,34 +2126,34 @@
         <v>4.33</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2168,7 +2168,7 @@
         <v>1.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
         <v>17</v>
@@ -2186,10 +2186,10 @@
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG12" t="n">
         <v>17</v>
@@ -2198,7 +2198,7 @@
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ12" t="n">
         <v>6.5</v>
@@ -2255,16 +2255,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
         <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>1.91</v>
@@ -2273,10 +2273,10 @@
         <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -2285,16 +2285,16 @@
         <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
@@ -2303,10 +2303,10 @@
         <v>2.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -2354,7 +2354,7 @@
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
         <v>41</v>
@@ -2362,10 +2362,10 @@
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="14">
@@ -2400,22 +2400,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2424,55 +2424,55 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="U14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="n">
         <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
         <v>6.5</v>
@@ -2481,33 +2481,37 @@
         <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI14" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+      <c r="AR14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2559,10 +2563,10 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2625,10 +2629,10 @@
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -2637,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
         <v>29</v>
@@ -2682,13 +2686,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -2700,28 +2704,28 @@
         <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U16" t="n">
         <v>1.62</v>
@@ -2730,10 +2734,10 @@
         <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y16" t="n">
         <v>5.5</v>
@@ -2754,13 +2758,13 @@
         <v>41</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF16" t="n">
         <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>81</v>
@@ -2772,7 +2776,7 @@
         <v>8</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -2827,40 +2831,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2881,19 +2885,19 @@
         <v>1.67</v>
       </c>
       <c r="Y17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
@@ -2902,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -2917,16 +2921,16 @@
         <v>6.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
@@ -2934,10 +2938,10 @@
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="18">
@@ -2972,67 +2976,67 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
         <v>4.5</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
         <v>1.75</v>
       </c>
-      <c r="S18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.91</v>
-      </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
@@ -3044,42 +3048,46 @@
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>451</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>6.5</v>
       </c>
-      <c r="AG18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>7</v>
-      </c>
       <c r="AK18" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
+      <c r="AR18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3113,46 +3121,46 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U19" t="n">
         <v>1.44</v>
@@ -3167,19 +3175,19 @@
         <v>1.95</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
         <v>34</v>
@@ -3200,22 +3208,22 @@
         <v>251</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN19" t="n">
         <v>21</v>
       </c>
-      <c r="AN19" t="n">
-        <v>19</v>
-      </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3254,16 +3262,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -3311,7 +3319,7 @@
         <v>7</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
         <v>8.5</v>
@@ -3320,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
         <v>26</v>
@@ -3332,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>51</v>
@@ -3353,7 +3361,7 @@
         <v>51</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO20" t="n">
         <v>41</v>
@@ -3401,91 +3409,91 @@
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
         <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W21" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="n">
         <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
         <v>6.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>13</v>
@@ -3494,10 +3502,10 @@
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3536,93 +3544,101 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
         <v>2.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L22" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.17</v>
+      </c>
       <c r="Y22" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
         <v>11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AH22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK22" t="n">
         <v>16</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM22" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3661,22 +3677,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
         <v>1.03</v>
       </c>
       <c r="J23" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3707,13 +3723,13 @@
         <v>1.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Z23" t="n">
         <v>500</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AB23" t="n">
         <v>101</v>
@@ -3722,7 +3738,7 @@
         <v>101</v>
       </c>
       <c r="AD23" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE23" t="n">
         <v>32</v>
@@ -3746,7 +3762,7 @@
         <v>7.8</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM23" t="n">
         <v>5.8</v>
@@ -3834,10 +3850,10 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X24" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Y24" t="n">
         <v>10.5</v>
@@ -4237,22 +4253,22 @@
         <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U27" t="n">
         <v>1.36</v>
@@ -4358,13 +4374,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
         <v>2.63</v>
@@ -4373,7 +4389,7 @@
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -4406,13 +4422,13 @@
         <v>2.75</v>
       </c>
       <c r="W28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X28" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="n">
         <v>10</v>
@@ -4421,16 +4437,16 @@
         <v>9</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>6.5</v>
@@ -4439,7 +4455,7 @@
         <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI28" t="n">
         <v>600</v>
@@ -4529,10 +4545,10 @@
         <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="n">
         <v>4.33</v>
@@ -4658,10 +4674,10 @@
         <v>1.95</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -4785,22 +4801,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4839,22 +4855,22 @@
         <v>2.05</v>
       </c>
       <c r="Y31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>11</v>
@@ -4872,22 +4888,22 @@
         <v>201</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4926,22 +4942,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -4974,25 +4990,25 @@
         <v>2.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X32" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y32" t="n">
         <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA32" t="n">
         <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
         <v>26</v>
@@ -5001,7 +5017,7 @@
         <v>11</v>
       </c>
       <c r="AF32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG32" t="n">
         <v>17</v>
@@ -5013,10 +5029,10 @@
         <v>301</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL32" t="n">
         <v>15</v>
@@ -5025,7 +5041,7 @@
         <v>51</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO32" t="n">
         <v>41</v>
@@ -5067,16 +5083,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
         <v>2.1</v>
@@ -5097,10 +5113,10 @@
         <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R33" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S33" t="n">
         <v>3.4</v>
@@ -5136,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE33" t="n">
         <v>10</v>
@@ -5145,10 +5161,10 @@
         <v>6.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI33" t="n">
         <v>201</v>
@@ -5166,7 +5182,7 @@
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO33" t="n">
         <v>34</v>
@@ -5349,28 +5365,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
         <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
         <v>2.4</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.2</v>
@@ -5379,10 +5395,10 @@
         <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S35" t="n">
         <v>2.63</v>
@@ -5397,10 +5413,10 @@
         <v>3.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y35" t="n">
         <v>19</v>
@@ -5409,7 +5425,7 @@
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB35" t="n">
         <v>67</v>
@@ -5421,37 +5437,37 @@
         <v>41</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
         <v>201</v>
       </c>
       <c r="AJ35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL35" t="n">
         <v>8.5</v>
       </c>
       <c r="AM35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN35" t="n">
         <v>11</v>
       </c>
-      <c r="AN35" t="n">
-        <v>12</v>
-      </c>
       <c r="AO35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP35" t="n">
         <v>2.05</v>
@@ -5494,82 +5510,82 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2.18</v>
       </c>
-      <c r="L36" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="T36" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="U36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V36" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="W36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X36" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Y36" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA36" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AC36" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG36" t="n">
         <v>23</v>
@@ -5581,16 +5597,16 @@
         <v>101</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK36" t="n">
         <v>35</v>
       </c>
       <c r="AL36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN36" t="n">
         <v>80</v>
@@ -5635,7 +5651,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="H37" t="n">
         <v>5.1</v>
@@ -5647,49 +5663,49 @@
         <v>7.1</v>
       </c>
       <c r="K37" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="L37" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P37" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R37" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="S37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T37" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U37" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="V37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="W37" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="X37" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z37" t="n">
         <v>70</v>
@@ -5701,13 +5717,13 @@
         <v>250</v>
       </c>
       <c r="AC37" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD37" t="n">
         <v>70</v>
       </c>
       <c r="AE37" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF37" t="n">
         <v>11</v>
@@ -5722,19 +5738,19 @@
         <v>500</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK37" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AL37" t="n">
         <v>8.75</v>
       </c>
       <c r="AM37" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AN37" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO37" t="n">
         <v>23</v>
@@ -5776,109 +5792,109 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H38" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="I38" t="n">
         <v>7.8</v>
       </c>
       <c r="J38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K38" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L38" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="T38" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="U38" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="V38" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="W38" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="X38" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Y38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z38" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB38" t="n">
         <v>8.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE38" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG38" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH38" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AJ38" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AK38" t="n">
         <v>55</v>
       </c>
       <c r="AL38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM38" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AO38" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5917,22 +5933,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I39" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L39" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
@@ -5953,7 +5969,7 @@
         <v>1.7</v>
       </c>
       <c r="S39" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T39" t="n">
         <v>1.27</v>
@@ -5971,22 +5987,22 @@
         <v>1.93</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AC39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD39" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE39" t="n">
         <v>6.6</v>
@@ -6004,22 +6020,22 @@
         <v>600</v>
       </c>
       <c r="AJ39" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AK39" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AM39" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN39" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO39" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6058,19 +6074,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J40" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="K40" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L40" t="n">
         <v>4.2</v>
@@ -6079,31 +6095,31 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T40" t="n">
         <v>1.28</v>
       </c>
       <c r="U40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V40" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W40" t="n">
         <v>1.85</v>
@@ -6115,25 +6131,25 @@
         <v>6.7</v>
       </c>
       <c r="Z40" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC40" t="n">
         <v>16</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>15.5</v>
       </c>
       <c r="AD40" t="n">
         <v>29</v>
       </c>
       <c r="AE40" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AG40" t="n">
         <v>15.5</v>
@@ -6142,10 +6158,10 @@
         <v>75</v>
       </c>
       <c r="AI40" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ40" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK40" t="n">
         <v>20</v>
@@ -6157,7 +6173,7 @@
         <v>55</v>
       </c>
       <c r="AN40" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO40" t="n">
         <v>45</v>
@@ -6216,14 +6232,10 @@
       <c r="L41" t="n">
         <v>2.3</v>
       </c>
-      <c r="M41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N41" t="n">
-        <v>34</v>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P41" t="n">
         <v>7</v>
@@ -6235,10 +6247,10 @@
         <v>3.4</v>
       </c>
       <c r="S41" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U41" t="n">
         <v>1.2</v>
@@ -6247,7 +6259,7 @@
         <v>4.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X41" t="n">
         <v>3</v>
@@ -6357,14 +6369,10 @@
       <c r="L42" t="n">
         <v>4</v>
       </c>
-      <c r="M42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N42" t="n">
-        <v>34</v>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P42" t="n">
         <v>8</v>
@@ -6376,10 +6384,10 @@
         <v>3.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T42" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U42" t="n">
         <v>1.2</v>
@@ -6388,7 +6396,7 @@
         <v>4.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X42" t="n">
         <v>2.75</v>
@@ -6481,97 +6489,97 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J43" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="L43" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="O43" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P43" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R43" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="n">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="T43" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="U43" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="V43" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="W43" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="X43" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="Y43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA43" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB43" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AC43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AF43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>7.5</v>
       </c>
-      <c r="AG43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>600</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AK43" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AL43" t="n">
         <v>8</v>
@@ -6580,10 +6588,10 @@
         <v>11</v>
       </c>
       <c r="AN43" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AO43" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
@@ -833,34 +833,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.67</v>
@@ -869,10 +869,10 @@
         <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.3</v>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>8.5</v>
@@ -905,13 +905,13 @@
         <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -920,28 +920,28 @@
         <v>251</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -996,85 +996,85 @@
         <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
         <v>41</v>
       </c>
       <c r="AD4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>7</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL4" t="n">
         <v>10</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
         <v>19</v>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.63</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1167,16 +1167,16 @@
         <v>4.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
         <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1185,40 +1185,40 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
         <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1290,16 +1290,16 @@
         <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
         <v>1.22</v>
@@ -1308,25 +1308,25 @@
         <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
         <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>21</v>
@@ -1335,31 +1335,31 @@
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="n">
         <v>151</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AN6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO6" t="n">
         <v>41</v>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1425,10 +1425,10 @@
         <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.57</v>
@@ -1437,10 +1437,10 @@
         <v>2.35</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.3</v>
@@ -1449,25 +1449,25 @@
         <v>3.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD7" t="n">
         <v>29</v>
@@ -1479,25 +1479,25 @@
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AL7" t="n">
         <v>8.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
         <v>13</v>
@@ -1506,10 +1506,10 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1546,16 +1546,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
         <v>2.12</v>
@@ -1573,7 +1573,7 @@
         <v>1.45</v>
       </c>
       <c r="P8" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Q8" t="n">
         <v>2.32</v>
@@ -1594,22 +1594,22 @@
         <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="X8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AC8" t="n">
         <v>150</v>
@@ -1621,7 +1621,7 @@
         <v>5.9</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>30</v>
@@ -1633,16 +1633,16 @@
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AL8" t="n">
         <v>9.25</v>
       </c>
       <c r="AM8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AN8" t="n">
         <v>15.5</v>
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
         <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>1.72</v>
       </c>
       <c r="L9" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="M9" t="n">
         <v>1.19</v>
@@ -1711,49 +1711,49 @@
         <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X9" t="n">
         <v>1.47</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD9" t="n">
         <v>65</v>
@@ -1774,19 +1774,19 @@
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
         <v>100</v>
@@ -1828,109 +1828,109 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="L10" t="n">
         <v>3.85</v>
       </c>
       <c r="M10" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W10" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="X10" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC10" t="n">
         <v>40</v>
       </c>
-      <c r="AC10" t="n">
-        <v>35</v>
-      </c>
       <c r="AD10" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AI10" t="n">
         <v>101</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
         <v>45</v>
       </c>
       <c r="AN10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -1969,19 +1969,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
         <v>5.5</v>
@@ -1993,37 +1993,37 @@
         <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
         <v>8.5</v>
@@ -2032,40 +2032,40 @@
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
         <v>41</v>
@@ -2074,10 +2074,10 @@
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2114,64 +2114,64 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2.05</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2186,7 +2186,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
         <v>6.5</v>
@@ -2198,25 +2198,25 @@
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2255,97 +2255,97 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.75</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L13" t="n">
         <v>3.6</v>
       </c>
       <c r="M13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.11</v>
       </c>
-      <c r="N13" t="n">
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y13" t="n">
         <v>6.5</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE13" t="n">
         <v>5.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>6.5</v>
       </c>
       <c r="AF13" t="n">
         <v>5.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="n">
         <v>501</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
         <v>11</v>
@@ -2354,7 +2354,7 @@
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
         <v>41</v>
@@ -2362,10 +2362,10 @@
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="14">
@@ -2406,22 +2406,22 @@
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2430,10 +2430,10 @@
         <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>4.5</v>
@@ -2448,13 +2448,13 @@
         <v>2.38</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X14" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z14" t="n">
         <v>9.5</v>
@@ -2472,19 +2472,19 @@
         <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
         <v>67</v>
       </c>
       <c r="AI14" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ14" t="n">
         <v>8</v>
@@ -2499,7 +2499,7 @@
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
@@ -2507,10 +2507,10 @@
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="15">
@@ -2545,100 +2545,100 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="n">
         <v>10</v>
       </c>
-      <c r="AA15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AF15" t="n">
         <v>6</v>
       </c>
       <c r="AG15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>451</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK15" t="n">
         <v>15</v>
       </c>
-      <c r="AH15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17</v>
-      </c>
       <c r="AL15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM15" t="n">
         <v>34</v>
@@ -2651,8 +2651,12 @@
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2686,19 +2690,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
         <v>4.75</v>
@@ -2728,16 +2732,16 @@
         <v>1.13</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y16" t="n">
         <v>5.5</v>
@@ -2749,10 +2753,10 @@
         <v>10</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD16" t="n">
         <v>41</v>
@@ -2773,10 +2777,10 @@
         <v>501</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -2793,10 +2797,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="17">
@@ -2831,61 +2835,61 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.7</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
         <v>2.63</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Y17" t="n">
         <v>7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>6.5</v>
       </c>
       <c r="Z17" t="n">
         <v>12</v>
@@ -2894,7 +2898,7 @@
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
         <v>26</v>
@@ -2903,7 +2907,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2918,7 +2922,7 @@
         <v>501</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK17" t="n">
         <v>12</v>
@@ -2927,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
         <v>26</v>
@@ -2938,10 +2942,10 @@
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="18">
@@ -2976,64 +2980,64 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.44</v>
       </c>
-      <c r="P18" t="n">
+      <c r="V18" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X18" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3048,45 +3052,45 @@
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
         <v>6</v>
       </c>
       <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM18" t="n">
         <v>17</v>
       </c>
-      <c r="AH18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>451</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>21</v>
-      </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="19">
@@ -3121,61 +3125,61 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S19" t="n">
         <v>3.4</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.75</v>
       </c>
-      <c r="S19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.8</v>
-      </c>
       <c r="X19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>13</v>
@@ -3190,25 +3194,25 @@
         <v>21</v>
       </c>
       <c r="AD19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
         <v>6.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>13</v>
@@ -3223,7 +3227,7 @@
         <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3262,22 +3266,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3292,16 +3296,16 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U20" t="n">
         <v>1.4</v>
@@ -3310,25 +3314,25 @@
         <v>2.75</v>
       </c>
       <c r="W20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>26</v>
@@ -3337,34 +3341,34 @@
         <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
         <v>17</v>
       </c>
-      <c r="AH20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>23</v>
-      </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM20" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3403,46 +3407,46 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U21" t="n">
         <v>1.44</v>
@@ -3460,25 +3464,25 @@
         <v>7</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -3490,19 +3494,19 @@
         <v>301</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
         <v>41</v>
@@ -3544,19 +3548,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I22" t="n">
         <v>3.6</v>
       </c>
-      <c r="I22" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="K22" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
         <v>3.95</v>
@@ -3564,16 +3568,16 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S22" t="n">
         <v>2.65</v>
@@ -3584,16 +3588,16 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AA22" t="n">
         <v>7.1</v>
@@ -3602,43 +3606,43 @@
         <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AK22" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN22" t="n">
         <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3677,22 +3681,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>7.3</v>
       </c>
       <c r="I23" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="J23" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="L23" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3703,16 +3707,16 @@
         <v>4.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="R23" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="S23" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3723,55 +3727,55 @@
         <v>1.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AA23" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
         <v>101</v>
       </c>
       <c r="AC23" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="AD23" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="AE23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>32</v>
       </c>
-      <c r="AF23" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>75</v>
-      </c>
       <c r="AH23" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AI23" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AL23" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3810,101 +3814,101 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L24" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.7</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>2.36</v>
+        <v>2.33</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AG24" t="n">
         <v>9.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL24" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AM24" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO24" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -4229,52 +4233,52 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>15</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R27" t="n">
         <v>2.1</v>
       </c>
-      <c r="K27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>13</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.03</v>
-      </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W27" t="n">
         <v>1.91</v>
@@ -4283,16 +4287,16 @@
         <v>1.91</v>
       </c>
       <c r="Y27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z27" t="n">
         <v>7</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>7.5</v>
       </c>
       <c r="AA27" t="n">
         <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
         <v>12</v>
@@ -4304,10 +4308,10 @@
         <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
@@ -4316,10 +4320,10 @@
         <v>301</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="n">
         <v>19</v>
@@ -4328,7 +4332,7 @@
         <v>67</v>
       </c>
       <c r="AN27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO27" t="n">
         <v>41</v>
@@ -4374,22 +4378,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -4404,10 +4408,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="n">
         <v>3.25</v>
@@ -4428,16 +4432,16 @@
         <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
         <v>17</v>
@@ -4452,28 +4456,28 @@
         <v>6.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>41</v>
       </c>
       <c r="AI28" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AJ28" t="n">
         <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
         <v>34</v>
@@ -4515,103 +4519,103 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I29" t="n">
         <v>3</v>
       </c>
-      <c r="I29" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="L29" t="n">
         <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.4</v>
       </c>
-      <c r="P29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S29" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X29" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="Y29" t="n">
         <v>6.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AF29" t="n">
         <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>13</v>
       </c>
       <c r="AM29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN29" t="n">
         <v>29</v>
@@ -4621,8 +4625,12 @@
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+      <c r="AR29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4656,22 +4664,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I30" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="J30" t="n">
         <v>5.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4713,13 +4721,13 @@
         <v>19</v>
       </c>
       <c r="Z30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
@@ -4737,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="n">
         <v>151</v>
@@ -4746,19 +4754,19 @@
         <v>9</v>
       </c>
       <c r="AK30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN30" t="n">
         <v>11</v>
       </c>
-      <c r="AN30" t="n">
-        <v>12</v>
-      </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
         <v>1.9</v>
@@ -4801,103 +4809,103 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
         <v>3.4</v>
       </c>
-      <c r="I31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P31" t="n">
         <v>3</v>
       </c>
-      <c r="K31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="Q31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
         <v>11</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X31" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE31" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AF31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM31" t="n">
         <v>26</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>34</v>
       </c>
       <c r="AN31" t="n">
         <v>23</v>
@@ -4942,82 +4950,82 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K32" t="n">
         <v>2.25</v>
       </c>
-      <c r="K32" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X32" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y32" t="n">
         <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
         <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
         <v>26</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG32" t="n">
         <v>17</v>
@@ -5029,19 +5037,19 @@
         <v>301</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="n">
         <v>15</v>
       </c>
       <c r="AM32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="n">
         <v>41</v>
@@ -5083,22 +5091,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -5113,16 +5121,16 @@
         <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U33" t="n">
         <v>1.4</v>
@@ -5143,7 +5151,7 @@
         <v>11</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
@@ -5152,7 +5160,7 @@
         <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE33" t="n">
         <v>10</v>
@@ -5164,13 +5172,13 @@
         <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="n">
         <v>201</v>
       </c>
       <c r="AJ33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK33" t="n">
         <v>15</v>
@@ -5224,22 +5232,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
         <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
@@ -5254,16 +5262,16 @@
         <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U34" t="n">
         <v>1.5</v>
@@ -5281,13 +5289,13 @@
         <v>7</v>
       </c>
       <c r="Z34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA34" t="n">
         <v>10</v>
       </c>
-      <c r="AA34" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
         <v>21</v>
@@ -5296,7 +5304,7 @@
         <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF34" t="n">
         <v>6</v>
@@ -5311,7 +5319,7 @@
         <v>351</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK34" t="n">
         <v>15</v>
@@ -5365,28 +5373,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J35" t="n">
         <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.95</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
         <v>1.2</v>
@@ -5395,16 +5403,16 @@
         <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U35" t="n">
         <v>1.3</v>
@@ -5413,10 +5421,10 @@
         <v>3.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X35" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
         <v>19</v>
@@ -5425,7 +5433,7 @@
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="n">
         <v>67</v>
@@ -5437,7 +5445,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>8.5</v>
@@ -5452,16 +5460,16 @@
         <v>201</v>
       </c>
       <c r="AJ35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK35" t="n">
         <v>8</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>7.5</v>
       </c>
       <c r="AL35" t="n">
         <v>8.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN35" t="n">
         <v>11</v>
@@ -5470,10 +5478,10 @@
         <v>23</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5513,106 +5521,106 @@
         <v>1.53</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J36" t="n">
         <v>2.1</v>
       </c>
       <c r="K36" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L36" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z36" t="n">
         <v>6.4</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>6</v>
-      </c>
       <c r="AA36" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD36" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AE36" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AF36" t="n">
         <v>7.4</v>
       </c>
       <c r="AG36" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH36" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI36" t="n">
         <v>101</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK36" t="n">
         <v>35</v>
       </c>
       <c r="AL36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO36" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5651,109 +5659,109 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="H37" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I37" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="J37" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="K37" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="L37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="R37" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="S37" t="n">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="T37" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="U37" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V37" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="W37" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="X37" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="Y37" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z37" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AB37" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AC37" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="AD37" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AE37" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF37" t="n">
         <v>11</v>
       </c>
       <c r="AG37" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AH37" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AI37" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AJ37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AL37" t="n">
         <v>9.25</v>
       </c>
-      <c r="AK37" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AM37" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="AN37" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AO37" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5792,34 +5800,34 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="H38" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="I38" t="n">
-        <v>7.8</v>
+        <v>9.75</v>
       </c>
       <c r="J38" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="K38" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="L38" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O38" t="n">
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q38" t="n">
         <v>1.65</v>
@@ -5834,67 +5842,67 @@
         <v>1.45</v>
       </c>
       <c r="U38" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="V38" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="X38" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Y38" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Z38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AC38" t="n">
         <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF38" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AG38" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AH38" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AI38" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK38" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AM38" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="AN38" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AO38" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5933,109 +5941,109 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>4.65</v>
       </c>
       <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W39" t="n">
         <v>2.05</v>
       </c>
-      <c r="L39" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N39" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R39" t="n">
+      <c r="X39" t="n">
         <v>1.7</v>
       </c>
-      <c r="S39" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.93</v>
-      </c>
       <c r="Y39" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AB39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO39" t="n">
         <v>37</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>35</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>600</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>30</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6074,52 +6082,52 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="K40" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L40" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R40" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S40" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T40" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="U40" t="n">
         <v>1.4</v>
       </c>
       <c r="V40" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="W40" t="n">
         <v>1.85</v>
@@ -6128,55 +6136,55 @@
         <v>1.85</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z40" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB40" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AG40" t="n">
         <v>16</v>
       </c>
-      <c r="AD40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH40" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="n">
         <v>700</v>
       </c>
       <c r="AJ40" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AK40" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM40" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AN40" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6215,27 +6223,31 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>4.75</v>
       </c>
       <c r="I41" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>2.63</v>
       </c>
       <c r="L41" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>34</v>
+      </c>
       <c r="O41" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P41" t="n">
         <v>7</v>
@@ -6247,10 +6259,10 @@
         <v>3.4</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T41" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U41" t="n">
         <v>1.2</v>
@@ -6259,10 +6271,10 @@
         <v>4.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X41" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -6277,7 +6289,7 @@
         <v>41</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD41" t="n">
         <v>21</v>
@@ -6286,13 +6298,13 @@
         <v>34</v>
       </c>
       <c r="AF41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="n">
         <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI41" t="n">
         <v>81</v>
@@ -6307,10 +6319,10 @@
         <v>9.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO41" t="n">
         <v>17</v>
@@ -6352,42 +6364,46 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H42" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>29</v>
+      </c>
       <c r="O42" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="P42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="T42" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U42" t="n">
         <v>1.2</v>
@@ -6396,7 +6412,7 @@
         <v>4.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X42" t="n">
         <v>2.75</v>
@@ -6417,19 +6433,19 @@
         <v>12</v>
       </c>
       <c r="AD42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG42" t="n">
         <v>13</v>
       </c>
       <c r="AH42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI42" t="n">
         <v>81</v>
@@ -6447,10 +6463,10 @@
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6489,109 +6505,109 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.4</v>
+        <v>4.25</v>
       </c>
       <c r="H43" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I43" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="J43" t="n">
-        <v>5.3</v>
+        <v>4.35</v>
       </c>
       <c r="K43" t="n">
         <v>2.35</v>
       </c>
       <c r="L43" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R43" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="S43" t="n">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="T43" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="U43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V43" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="W43" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="X43" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z43" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD43" t="n">
         <v>32</v>
       </c>
-      <c r="AA43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>50</v>
-      </c>
       <c r="AE43" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AF43" t="n">
         <v>8</v>
       </c>
       <c r="AG43" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AJ43" t="n">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK43" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM43" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AN43" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AO43" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -4257,22 +4257,22 @@
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U27" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-26.xlsx
@@ -4233,22 +4233,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H27" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K27" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -4275,64 +4275,64 @@
         <v>1.44</v>
       </c>
       <c r="U27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="X27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="n">
         <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
         <v>8.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO27" t="n">
         <v>41</v>
